--- a/metaData/tanzania-2016_vignettes_codebook.xlsx
+++ b/metaData/tanzania-2016_vignettes_codebook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annak\Box Sync\WB Work\WB Github Repo\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annak\Documents\GitHub\SDI-Health\metaData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E870CF2C-B343-4C52-9593-48172610B665}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4C7002E8-B5C5-4EA7-9539-A1648B252B84}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21143" windowWidth="7485" windowHeight="21143" tabRatio="579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4113,9 +4113,6 @@
     <t>skip_eclampsia</t>
   </si>
   <si>
-    <t>Did not do eclampsia vignette</t>
-  </si>
-  <si>
     <t>diag_sevpneu</t>
   </si>
   <si>
@@ -4180,6 +4177,9 @@
   </si>
   <si>
     <t>Did not do malaria+anemia vignette</t>
+  </si>
+  <si>
+    <t>Did not do pre-eclampsia vignette</t>
   </si>
 </sst>
 </file>
@@ -4747,8 +4747,8 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="53" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="17.25" x14ac:dyDescent="0.45"/>
@@ -4918,10 +4918,10 @@
     </row>
     <row r="14" spans="1:4" ht="34.5" x14ac:dyDescent="0.45">
       <c r="A14" s="19" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>1361</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>1362</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="24"/>
@@ -4943,7 +4943,7 @@
         <v>1344</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>984</v>
@@ -4971,7 +4971,7 @@
         <v>1346</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>987</v>
@@ -4985,7 +4985,7 @@
         <v>1347</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>988</v>
@@ -4999,7 +4999,7 @@
         <v>1348</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>989</v>
@@ -5013,7 +5013,7 @@
         <v>1349</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>990</v>
@@ -5027,7 +5027,7 @@
         <v>1350</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>991</v>
@@ -5059,7 +5059,7 @@
         <v>1354</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>1355</v>
+        <v>1377</v>
       </c>
       <c r="D25" s="24"/>
     </row>
@@ -5076,18 +5076,18 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="19" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B27" s="22" t="s">
         <v>1363</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>1364</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="19" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B28" s="22" t="s">
         <v>1365</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>1366</v>
       </c>
     </row>
   </sheetData>
@@ -7243,10 +7243,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="9" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B55" s="11" t="s">
         <v>1356</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>1357</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="12"/>
@@ -8632,10 +8632,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="14" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B72" s="13" t="s">
         <v>1367</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>1368</v>
       </c>
       <c r="C72" s="9"/>
     </row>
@@ -15203,13 +15203,13 @@
         <v>676</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>1013</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
@@ -16988,7 +16988,7 @@
         <v>1013</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>1014</v>
@@ -16996,24 +16996,24 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B7" s="8">
         <v>0</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
   </sheetData>
